--- a/Assets/StreamingAssets/Excel/Items.xlsx
+++ b/Assets/StreamingAssets/Excel/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Guild\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191266F2-B50E-4142-8BC7-38EBD160ECA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D4AB38-A77F-47B0-A2CC-88B0C1AF8A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6B91B7DC-4244-4A29-96BE-4A7A6416D8BD}"/>
   </bookViews>
@@ -106,15 +106,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +505,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -583,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -594,10 +594,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>

--- a/Assets/StreamingAssets/Excel/Items.xlsx
+++ b/Assets/StreamingAssets/Excel/Items.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Guild\Assets\StreamingAssets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Guild\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D4AB38-A77F-47B0-A2CC-88B0C1AF8A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142B0A92-E98E-49E9-AB00-7FB22DC6856B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6B91B7DC-4244-4A29-96BE-4A7A6416D8BD}"/>
   </bookViews>
@@ -83,22 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图标名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiejian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhengmian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>能否堆叠</t>
   </si>
   <si>
@@ -110,11 +94,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Others/shangdian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Item/tiejian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,13 +505,13 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -537,7 +537,7 @@
         <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -563,12 +563,12 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -585,19 +585,19 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="b">
+      <c r="G3" t="b">
         <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -611,11 +611,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="b">
+      <c r="G4" t="b">
         <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
